--- a/arq/db.xlsx
+++ b/arq/db.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igor_\PycharmProjects\pythonProject\arq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC631EF4-72EB-4989-A3F4-0A7DD278525C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8865C88B-C53F-4A46-8DA9-D49E95A61EA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="132" yWindow="1044" windowWidth="22908" windowHeight="11316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>Original Title</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Thor</t>
   </si>
   <si>
-    <t>150000000 </t>
-  </si>
-  <si>
     <t>Captain America: The First Avenger</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>7.2</t>
   </si>
   <si>
-    <t>200000000 </t>
-  </si>
-  <si>
     <t>Thor: The Dark World</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>7.4</t>
   </si>
   <si>
-    <t>175000000 </t>
-  </si>
-  <si>
     <t>Thor:Ragnarok</t>
   </si>
   <si>
@@ -160,9 +151,6 @@
     <t>8.5</t>
   </si>
   <si>
-    <t>321000000 </t>
-  </si>
-  <si>
     <t>Ant-Man and the Wasp</t>
   </si>
   <si>
@@ -208,9 +196,6 @@
     <t>4.7</t>
   </si>
   <si>
-    <t>47000000 </t>
-  </si>
-  <si>
     <t>Green Lantern</t>
   </si>
   <si>
@@ -254,9 +239,6 @@
   </si>
   <si>
     <t>8.7</t>
-  </si>
-  <si>
-    <t>55000000 </t>
   </si>
   <si>
     <t>ID</t>
@@ -265,7 +247,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1099,18 +1081,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="H1" sqref="H1:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1270,8 +1260,8 @@
       <c r="G5">
         <v>2011</v>
       </c>
-      <c r="H5" t="s">
-        <v>19</v>
+      <c r="H5">
+        <v>150000000</v>
       </c>
       <c r="I5">
         <v>65723338</v>
@@ -1288,13 +1278,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>66</v>
@@ -1323,7 +1313,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -1358,13 +1348,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>62</v>
@@ -1375,8 +1365,8 @@
       <c r="G8">
         <v>2013</v>
       </c>
-      <c r="H8" t="s">
-        <v>25</v>
+      <c r="H8">
+        <v>200000000</v>
       </c>
       <c r="I8">
         <v>174144585</v>
@@ -1393,13 +1383,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>54</v>
@@ -1428,13 +1418,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>70</v>
@@ -1463,7 +1453,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1498,13 +1488,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>66</v>
@@ -1533,13 +1523,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>64</v>
@@ -1568,13 +1558,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>75</v>
@@ -1603,13 +1593,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>72</v>
@@ -1638,13 +1628,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>67</v>
@@ -1673,13 +1663,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>73</v>
@@ -1690,8 +1680,8 @@
       <c r="G17">
         <v>2017</v>
       </c>
-      <c r="H17" t="s">
-        <v>41</v>
+      <c r="H17">
+        <v>175000000</v>
       </c>
       <c r="I17">
         <v>117027503</v>
@@ -1708,7 +1698,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1743,13 +1733,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>88</v>
@@ -1778,13 +1768,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E20">
         <v>68</v>
@@ -1795,8 +1785,8 @@
       <c r="G20">
         <v>2018</v>
       </c>
-      <c r="H20" t="s">
-        <v>46</v>
+      <c r="H20">
+        <v>321000000</v>
       </c>
       <c r="I20">
         <v>257698183</v>
@@ -1813,13 +1803,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E21">
         <v>70</v>
@@ -1848,13 +1838,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>64</v>
@@ -1865,8 +1855,8 @@
       <c r="G22">
         <v>2019</v>
       </c>
-      <c r="H22" t="s">
-        <v>41</v>
+      <c r="H22">
+        <v>175000000</v>
       </c>
       <c r="I22">
         <v>153433423</v>
@@ -1883,13 +1873,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E23">
         <v>78</v>
@@ -1918,13 +1908,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E24">
         <v>69</v>
@@ -1953,13 +1943,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E25">
         <v>27</v>
@@ -1988,13 +1978,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E26">
         <v>70</v>
@@ -2023,10 +2013,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -2058,10 +2048,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D28">
         <v>9</v>
@@ -2093,13 +2083,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E29">
         <v>56</v>
@@ -2128,13 +2118,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>33</v>
@@ -2145,8 +2135,8 @@
       <c r="G30">
         <v>2010</v>
       </c>
-      <c r="H30" t="s">
-        <v>62</v>
+      <c r="H30">
+        <v>47000000</v>
       </c>
       <c r="I30">
         <v>5379365</v>
@@ -2163,13 +2153,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E31">
         <v>39</v>
@@ -2198,13 +2188,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E32">
         <v>78</v>
@@ -2233,13 +2223,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E33">
         <v>55</v>
@@ -2268,13 +2258,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E34">
         <v>44</v>
@@ -2303,10 +2293,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D35">
         <v>6</v>
@@ -2338,13 +2328,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E36">
         <v>76</v>
@@ -2373,13 +2363,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E37">
         <v>45</v>
@@ -2408,10 +2398,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D38">
         <v>7</v>
@@ -2443,13 +2433,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E39">
         <v>71</v>
@@ -2478,13 +2468,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E40">
         <v>59</v>
@@ -2495,8 +2485,8 @@
       <c r="G40">
         <v>2019</v>
       </c>
-      <c r="H40" t="s">
-        <v>78</v>
+      <c r="H40">
+        <v>55000000</v>
       </c>
       <c r="I40">
         <v>96202337</v>

--- a/arq/db.xlsx
+++ b/arq/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igor_\PycharmProjects\pythonProject\arq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8865C88B-C53F-4A46-8DA9-D49E95A61EA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33669EB-929D-4674-8C45-90F004572FE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="1044" windowWidth="22908" windowHeight="11316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
   <si>
     <t>Original Title</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2498,6 +2501,11 @@
         <v>1060504580</v>
       </c>
     </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/arq/db.xlsx
+++ b/arq/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igor_\PycharmProjects\pythonProject\arq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33669EB-929D-4674-8C45-90F004572FE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004BE111-73F4-4DA9-ABFC-F985D2104E63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>Original Title</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
@@ -1085,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2501,11 +2498,6 @@
         <v>1060504580</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E41" t="s">
-        <v>74</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
